--- a/results/metric_df/AOL_metrics.xlsx
+++ b/results/metric_df/AOL_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -488,40 +498,46 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Fuc</t>
+          <t>Fuc(a1-2)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.353676509894131</v>
+        <v>3.205101569770718</v>
       </c>
       <c r="C2" t="n">
-        <v>2.8801507987082</v>
+        <v>2.105778298670959</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.105778298670959</v>
       </c>
       <c r="E2" t="n">
-        <v>0.452</v>
+        <v>2.105778298670959</v>
       </c>
       <c r="F2" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-1)']</t>
-        </is>
+        <v>0.9615850473936285</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.69</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -530,40 +546,46 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)GlcNAc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.205101569770718</v>
+        <v>3.353676509894131</v>
       </c>
       <c r="C3" t="n">
-        <v>2.105778298670959</v>
+        <v>2.12907997324471</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9615850473936285</v>
+        <v>2.12907997324471</v>
       </c>
       <c r="E3" t="n">
-        <v>0.365</v>
+        <v>2.12907997324471</v>
       </c>
       <c r="F3" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+        <v>0.8943772289437723</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)']</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -572,40 +594,46 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.353676509894131</v>
+        <v>-0.3360768358032059</v>
       </c>
       <c r="C4" t="n">
-        <v>2.12907997324471</v>
+        <v>1.879699471262461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8943772289437723</v>
+        <v>3.759398942524922</v>
       </c>
       <c r="E4" t="n">
-        <v>0.451</v>
+        <v>1.934499862432555</v>
       </c>
       <c r="F4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-2)']</t>
-        </is>
+        <v>1.18917</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.61</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4', '1C4']</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -614,124 +642,142 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3360768358032059</v>
+        <v>-0.4600316185386486</v>
       </c>
       <c r="C5" t="n">
-        <v>1.879699471262461</v>
+        <v>1.888273611267678</v>
       </c>
       <c r="D5" t="n">
-        <v>1.18917</v>
+        <v>3.776547222535355</v>
       </c>
       <c r="E5" t="n">
-        <v>0.479</v>
+        <v>1.910583370180939</v>
       </c>
       <c r="F5" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="G5" t="inlineStr">
+        <v>2.409159665966597</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4495</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.149999999999999</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>['1C4', '1C4']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Fuc(a1-4)']</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>O</t>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4600316185386486</v>
+        <v>-0.3606969931911755</v>
       </c>
       <c r="C6" t="n">
-        <v>1.888273611267678</v>
+        <v>2.273759042726899</v>
       </c>
       <c r="D6" t="n">
-        <v>2.409159665966597</v>
+        <v>2.273759042726899</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4495</v>
+        <v>2.273759042726899</v>
       </c>
       <c r="F6" t="n">
-        <v>8.149999999999999</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['1C4', '1C4']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-2)', 'Fuc(a1-4)']</t>
-        </is>
+        <v>2.228010532280105</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.49</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4']</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3606969931911755</v>
+        <v>1.786197359394819</v>
       </c>
       <c r="C7" t="n">
-        <v>2.273759042726899</v>
+        <v>1.965284185598133</v>
       </c>
       <c r="D7" t="n">
-        <v>2.228010532280105</v>
+        <v>3.930568371196265</v>
       </c>
       <c r="E7" t="n">
-        <v>0.426</v>
+        <v>2.170830920556838</v>
       </c>
       <c r="F7" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-2)']</t>
-        </is>
+        <v>0.838733873387339</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4665</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.154999999999999</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4', '1C4']</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -740,82 +786,94 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.786197359394819</v>
+        <v>-0.4600316185386486</v>
       </c>
       <c r="C8" t="n">
-        <v>1.965284185598133</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="D8" t="n">
-        <v>0.838733873387339</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4665</v>
+        <v>1.955767986496258</v>
       </c>
       <c r="F8" t="n">
-        <v>7.154999999999999</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['1C4', '1C4']</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-2)', 'Fuc(a1-3)']</t>
-        </is>
+        <v>2.63788</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8.42</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4']</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>-0.4600316185386486</v>
       </c>
       <c r="C9" t="n">
-        <v>1.955767986496258</v>
+        <v>2.074553668654954</v>
       </c>
       <c r="D9" t="n">
-        <v>2.63788</v>
+        <v>2.074553668654954</v>
       </c>
       <c r="E9" t="n">
-        <v>0.525</v>
+        <v>2.074553668654954</v>
       </c>
       <c r="F9" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+        <v>6.117766666666665</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)']</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -824,40 +882,46 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>-0.4600316185386486</v>
       </c>
       <c r="C10" t="n">
-        <v>2.074553668654954</v>
+        <v>1.669857997159468</v>
       </c>
       <c r="D10" t="n">
-        <v>6.117766666666665</v>
+        <v>3.339715994318936</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4</v>
+        <v>1.677303481074935</v>
       </c>
       <c r="F10" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-2)']</t>
-        </is>
+        <v>4.053566666666666</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4645</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.65</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4', '1C4']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-2)', 'Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -866,82 +930,94 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4600316185386486</v>
+        <v>2.239364458968539</v>
       </c>
       <c r="C11" t="n">
-        <v>1.669857997159468</v>
+        <v>1.956577845743809</v>
       </c>
       <c r="D11" t="n">
-        <v>4.053566666666666</v>
+        <v>1.956577845743809</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4645</v>
+        <v>1.956577845743809</v>
       </c>
       <c r="F11" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['1C4', '1C4']</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-2)', 'Fuc(a1-4)']</t>
-        </is>
+        <v>3.292720727927207</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.63</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4']</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['Fuc(a1-2)']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.239364458968539</v>
+        <v>-0.0204863085372086</v>
       </c>
       <c r="C12" t="n">
-        <v>1.956577845743809</v>
+        <v>1.847296205066145</v>
       </c>
       <c r="D12" t="n">
-        <v>3.292720727927207</v>
+        <v>1.847296205066145</v>
       </c>
       <c r="E12" t="n">
-        <v>0.418</v>
+        <v>1.847296205066145</v>
       </c>
       <c r="F12" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-2)']</t>
-        </is>
+        <v>0.5957333333333329</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.9</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4']</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -950,40 +1026,46 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0204863085372086</v>
+        <v>0.8707008912107572</v>
       </c>
       <c r="C13" t="n">
-        <v>1.847296205066145</v>
+        <v>2.132314839689439</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5957333333333329</v>
+        <v>2.132314839689439</v>
       </c>
       <c r="E13" t="n">
-        <v>0.431</v>
+        <v>2.132314839689439</v>
       </c>
       <c r="F13" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-3)']</t>
-        </is>
+        <v>0.8014634796813008</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.470000000000001</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4']</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -992,82 +1074,94 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8707008912107572</v>
+        <v>-0.4600316185386486</v>
       </c>
       <c r="C14" t="n">
-        <v>2.132314839689439</v>
+        <v>2.030365137387976</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8014634796813008</v>
+        <v>2.030365137387976</v>
       </c>
       <c r="E14" t="n">
-        <v>0.475</v>
+        <v>2.030365137387976</v>
       </c>
       <c r="F14" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+        <v>5.810491049104911</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>['Fuc(a1-4)']</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>O</t>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)[Fuc(a1-3)]Glc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4600316185386486</v>
+        <v>0.643068071538111</v>
       </c>
       <c r="C15" t="n">
-        <v>2.030365137387976</v>
+        <v>2.005647536563297</v>
       </c>
       <c r="D15" t="n">
-        <v>5.810491049104911</v>
+        <v>4.011295073126593</v>
       </c>
       <c r="E15" t="n">
-        <v>0.442</v>
+        <v>2.059047154583223</v>
       </c>
       <c r="F15" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-4)']</t>
-        </is>
+        <v>5.078409999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.734999999999999</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4', '1C4']</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-4)', 'Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1076,82 +1170,94 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)[Fuc(a1-3)]Glc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.643068071538111</v>
+        <v>1.539336569725478</v>
       </c>
       <c r="C16" t="n">
-        <v>2.005647536563297</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="D16" t="n">
-        <v>5.078409999999999</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="E16" t="n">
-        <v>0.448</v>
+        <v>1.656675648076949</v>
       </c>
       <c r="F16" t="n">
-        <v>6.734999999999999</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['1C4', '1C4']</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-4)', 'Fuc(a1-3)']</t>
-        </is>
+        <v>24.5925</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15.59</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4']</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.539336569725478</v>
+        <v>1.677224030985073</v>
       </c>
       <c r="C17" t="n">
-        <v>1.656675648076949</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="D17" t="n">
-        <v>24.5925</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="E17" t="n">
-        <v>0.432</v>
+        <v>2.032631731546139</v>
       </c>
       <c r="F17" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+        <v>17.06189381061894</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>['Fuc(a1-6)']</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1160,40 +1266,46 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.677224030985073</v>
+        <v>1.470392839095681</v>
       </c>
       <c r="C18" t="n">
-        <v>2.032631731546139</v>
+        <v>1.949736047171382</v>
       </c>
       <c r="D18" t="n">
-        <v>17.06189381061894</v>
+        <v>1.949736047171382</v>
       </c>
       <c r="E18" t="n">
-        <v>0.471</v>
+        <v>1.949736047171382</v>
       </c>
       <c r="F18" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+        <v>14.62466666666667</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>['Fuc(a1-6)']</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1202,40 +1314,46 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.470392839095681</v>
+        <v>0.4362368796487185</v>
       </c>
       <c r="C19" t="n">
-        <v>1.949736047171382</v>
+        <v>1.66530716417993</v>
       </c>
       <c r="D19" t="n">
-        <v>14.62466666666667</v>
+        <v>1.66530716417993</v>
       </c>
       <c r="E19" t="n">
-        <v>0.464</v>
+        <v>1.66530716417993</v>
       </c>
       <c r="F19" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+        <v>35.6324</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="H19" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>['Fuc(a1-6)']</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1244,40 +1362,46 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4362368796487185</v>
+        <v>1.332505377836086</v>
       </c>
       <c r="C20" t="n">
-        <v>1.66530716417993</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="D20" t="n">
-        <v>35.6324</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="E20" t="n">
-        <v>0.452</v>
+        <v>2.196111397777991</v>
       </c>
       <c r="F20" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+        <v>16.7310602273106</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>['Fuc(a1-6)']</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1286,40 +1410,46 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.332505377836086</v>
+        <v>5.400185484994137</v>
       </c>
       <c r="C21" t="n">
-        <v>2.196111397777991</v>
+        <v>2.324045455484034</v>
       </c>
       <c r="D21" t="n">
-        <v>16.7310602273106</v>
+        <v>2.324045455484034</v>
       </c>
       <c r="E21" t="n">
-        <v>0.487</v>
+        <v>2.324045455484034</v>
       </c>
       <c r="F21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+        <v>2.18288</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>['Fuc(a1-6)']</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1328,40 +1458,46 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.400185484994137</v>
+        <v>2.84926745169163</v>
       </c>
       <c r="C22" t="n">
-        <v>2.324045455484034</v>
+        <v>2.29808814603166</v>
       </c>
       <c r="D22" t="n">
-        <v>2.18288</v>
+        <v>2.29808814603166</v>
       </c>
       <c r="E22" t="n">
-        <v>0.446</v>
+        <v>2.29808814603166</v>
       </c>
       <c r="F22" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+        <v>8.503333333333334</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>['Fuc(a1-6)']</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1370,40 +1506,46 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.84926745169163</v>
+        <v>4.710748178696162</v>
       </c>
       <c r="C23" t="n">
-        <v>2.29808814603166</v>
+        <v>2.091318093705922</v>
       </c>
       <c r="D23" t="n">
-        <v>8.503333333333334</v>
+        <v>2.091318093705922</v>
       </c>
       <c r="E23" t="n">
-        <v>0.518</v>
+        <v>2.091318093705922</v>
       </c>
       <c r="F23" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+        <v>5.3316</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>['Fuc(a1-6)']</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1412,124 +1554,142 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.710748178696162</v>
+        <v>-0.3606969931911755</v>
       </c>
       <c r="C24" t="n">
-        <v>2.091318093705922</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="D24" t="n">
-        <v>5.3316</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="E24" t="n">
-        <v>0.434</v>
+        <v>1.993078126869602</v>
       </c>
       <c r="F24" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>4.196894689468947</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="H24" t="n">
+        <v>11.4</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4']</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Fuc(a1-4)']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.3606969931911755</v>
+        <v>1.470392839095681</v>
       </c>
       <c r="C25" t="n">
-        <v>1.993078126869602</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="D25" t="n">
-        <v>4.196894689468947</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="E25" t="n">
-        <v>0.458</v>
+        <v>1.680493591656133</v>
       </c>
       <c r="F25" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-4)']</t>
-        </is>
+        <v>14.01643169016431</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.52</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4']</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Fuc(a1-6)']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1.470392839095681</v>
       </c>
       <c r="C26" t="n">
-        <v>1.680493591656133</v>
+        <v>1.680813687621337</v>
       </c>
       <c r="D26" t="n">
-        <v>14.01643169016431</v>
+        <v>1.680813687621337</v>
       </c>
       <c r="E26" t="n">
-        <v>0.496</v>
+        <v>1.680813687621337</v>
       </c>
       <c r="F26" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+        <v>21.32665</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>['Fuc(a1-6)']</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1538,124 +1698,94 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.470392839095681</v>
+        <v>-0.1001175180308234</v>
       </c>
       <c r="C27" t="n">
-        <v>1.680813687621337</v>
+        <v>1.918932847975427</v>
       </c>
       <c r="D27" t="n">
-        <v>21.32665</v>
+        <v>1.918932847975427</v>
       </c>
       <c r="E27" t="n">
-        <v>0.463</v>
+        <v>1.918932847975427</v>
       </c>
       <c r="F27" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-6)']</t>
-        </is>
+        <v>1.1562</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9.119999999999999</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>['Fuc']</t>
+          <t>['1C4']</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Fuc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Xyl(b1-2)[Man(a1-3)][Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.1001175180308234</v>
+        <v>-0.4600316185386486</v>
       </c>
       <c r="C28" t="n">
-        <v>1.918932847975427</v>
+        <v>1.878598193210197</v>
       </c>
       <c r="D28" t="n">
-        <v>1.1562</v>
+        <v>1.878598193210197</v>
       </c>
       <c r="E28" t="n">
-        <v>0.441</v>
+        <v>1.878598193210197</v>
       </c>
       <c r="F28" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+        <v>13.41128387161284</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['1C4']</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>['Fuc(a1-3)']</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Xyl(b1-2)[Man(a1-3)][Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.4600316185386486</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.878598193210197</v>
-      </c>
-      <c r="D29" t="n">
-        <v>13.41128387161284</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.432</v>
-      </c>
-      <c r="F29" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['1C4']</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>['Fuc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>['Fuc']</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-?)']</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>O</t>
         </is>
